--- a/Lab4_Confidence.xlsx
+++ b/Lab4_Confidence.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Major Group</t>
   </si>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
@@ -660,8 +660,12 @@
       <c r="C3" s="10">
         <v>0.88</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="D3" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="55">
       <c r="A4" s="8"/>
@@ -672,9 +676,11 @@
         <v>3</v>
       </c>
       <c r="D4" s="8">
-        <v>3</v>
-      </c>
-      <c r="E4" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="27.5">
       <c r="A5" s="8"/>
@@ -684,8 +690,12 @@
       <c r="C5" s="9">
         <v>3</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="27.5">
       <c r="A6" s="8"/>
@@ -711,8 +721,12 @@
       <c r="C8" s="10">
         <v>0.95</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="55">
       <c r="A9" s="8"/>
@@ -722,8 +736,12 @@
       <c r="C9" s="10">
         <v>0.88</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="27.5">
       <c r="A10" s="8"/>
@@ -754,8 +772,12 @@
       <c r="C13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="27.5">
       <c r="A14" s="8"/>
@@ -765,8 +787,12 @@
       <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="27.5">
       <c r="A15" s="8"/>
